--- a/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_30.xlsx
+++ b/ArtigoKrigingVsg/peaks/Spherical/content/results/metrics_1_30.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998490355998918</v>
+        <v>0.9492400333643098</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8246075363346649</v>
+        <v>0.7441419320246521</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8142949749413305</v>
+        <v>0.7402445957458594</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9998321584165707</v>
+        <v>0.956284184733927</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0006283933457216023</v>
+        <v>0.1779396001765743</v>
       </c>
       <c r="G2" t="n">
-        <v>1.172850212138131</v>
+        <v>1.710924078669226</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6642561068388289</v>
+        <v>0.9291300195333432</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0007762024119726699</v>
+        <v>0.2041458398806743</v>
       </c>
       <c r="J2" t="n">
-        <v>0.04420129678672873</v>
+        <v>1.524383966876414</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02506777504529675</v>
+        <v>0.4218288754656019</v>
       </c>
       <c r="L2" t="n">
-        <v>1.009661721606925</v>
+        <v>0.9308800454322517</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02546256744367848</v>
+        <v>0.4284722585800113</v>
       </c>
       <c r="N2" t="n">
-        <v>144.7446884817577</v>
+        <v>37.45262222224893</v>
       </c>
       <c r="O2" t="n">
-        <v>286.0798610249741</v>
+        <v>74.41720581047474</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9997550543831953</v>
+        <v>0.9491693239776563</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8245176550253933</v>
+        <v>0.7441135618952126</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8138475531406029</v>
+        <v>0.7402598035747483</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9996271843292694</v>
+        <v>0.9566684922981088</v>
       </c>
       <c r="F3" t="n">
-        <v>0.001019592669221743</v>
+        <v>0.1781874726797253</v>
       </c>
       <c r="G3" t="n">
-        <v>1.173451248867095</v>
+        <v>1.71111378985542</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6658565086770249</v>
+        <v>0.9290756220112084</v>
       </c>
       <c r="I3" t="n">
-        <v>0.001724128293655074</v>
+        <v>0.202351185246307</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04279859659908648</v>
+        <v>1.525593596587416</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0319310611978641</v>
+        <v>0.4221225801585664</v>
       </c>
       <c r="L3" t="n">
-        <v>1.015676519475498</v>
+        <v>0.9307837603100001</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03243394349237967</v>
+        <v>0.4287705888282929</v>
       </c>
       <c r="N3" t="n">
-        <v>143.7767041506904</v>
+        <v>37.44983813126488</v>
       </c>
       <c r="O3" t="n">
-        <v>285.1118766939068</v>
+        <v>74.4144217194907</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999852539100599</v>
+        <v>0.9498387514766271</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8244714652604521</v>
+        <v>0.7435526393708193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8144461975234321</v>
+        <v>0.7406432744835656</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9998315837512262</v>
+        <v>0.9506338428857106</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0006138099304953599</v>
+        <v>0.1758407874982911</v>
       </c>
       <c r="G4" t="n">
-        <v>1.173760120037941</v>
+        <v>1.714864681358849</v>
       </c>
       <c r="H4" t="n">
-        <v>0.663715192431041</v>
+        <v>0.9277039688052902</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0007788600169442528</v>
+        <v>0.2305320292996841</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04087764097795855</v>
+        <v>1.505686964672021</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02477518779939639</v>
+        <v>0.4193337423798508</v>
       </c>
       <c r="L4" t="n">
-        <v>1.009437497561663</v>
+        <v>0.9316953211596625</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02516537224113514</v>
+        <v>0.4259378296423775</v>
       </c>
       <c r="N4" t="n">
-        <v>144.7916504743887</v>
+        <v>37.47635261968678</v>
       </c>
       <c r="O4" t="n">
-        <v>286.1268230176051</v>
+        <v>74.4409362079126</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998312324030684</v>
+        <v>0.949886634784345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8238574838538602</v>
+        <v>0.7435130901848314</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8140015478712166</v>
+        <v>0.7406415768547997</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9996698884067647</v>
+        <v>0.9498466244975272</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0007024996277880622</v>
+        <v>0.1756729320563913</v>
       </c>
       <c r="G5" t="n">
-        <v>1.177865816530947</v>
+        <v>1.715129146947658</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6653056784547473</v>
+        <v>0.9277100411249513</v>
       </c>
       <c r="I5" t="n">
-        <v>0.001526638450699189</v>
+        <v>0.2342082128055181</v>
       </c>
       <c r="J5" t="n">
-        <v>0.04432967838427387</v>
+        <v>1.5031755657297</v>
       </c>
       <c r="K5" t="n">
-        <v>0.02650470953977919</v>
+        <v>0.4191335491897437</v>
       </c>
       <c r="L5" t="n">
-        <v>1.010801126203624</v>
+        <v>0.9317605239616613</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02692213222004151</v>
+        <v>0.425734483609646</v>
       </c>
       <c r="N5" t="n">
-        <v>144.5217313731911</v>
+        <v>37.47826270677949</v>
       </c>
       <c r="O5" t="n">
-        <v>285.8569039164075</v>
+        <v>74.44284629500531</v>
       </c>
     </row>
     <row r="6">
@@ -708,291 +708,291 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998327850583104</v>
+        <v>0.9493722002497388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8238444832842052</v>
+        <v>0.7389255300533868</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8140371360249815</v>
+        <v>0.7436025216101205</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9996715710138235</v>
+        <v>0.9413632999589703</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0006960366588920217</v>
+        <v>0.1774762877611308</v>
       </c>
       <c r="G6" t="n">
-        <v>1.177952751400091</v>
+        <v>1.7458061826704</v>
       </c>
       <c r="H6" t="n">
-        <v>0.66517838169225</v>
+        <v>0.91711891342061</v>
       </c>
       <c r="I6" t="n">
-        <v>0.001518857043786632</v>
+        <v>0.2738239766283666</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0443984451074591</v>
+        <v>1.48622427771104</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02638250668325551</v>
+        <v>0.4212793464687425</v>
       </c>
       <c r="L6" t="n">
-        <v>1.010701756268134</v>
+        <v>0.9310600173613465</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02679800479068562</v>
+        <v>0.4279140750507787</v>
       </c>
       <c r="N6" t="n">
-        <v>144.5402164563901</v>
+        <v>37.45783653813751</v>
       </c>
       <c r="O6" t="n">
-        <v>285.8753889996065</v>
+        <v>74.42242012636332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_6</t>
+          <t>model_1_30_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998320550403548</v>
+        <v>0.948377965512509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8237698168609718</v>
+        <v>0.7352827101109374</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8144241653297184</v>
+        <v>0.7455056746348534</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996153263927839</v>
+        <v>0.9346324415094849</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006990753781218942</v>
+        <v>0.1809615881533484</v>
       </c>
       <c r="G7" t="n">
-        <v>1.17845204611606</v>
+        <v>1.770165736399202</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6637940003104547</v>
+        <v>0.9103114454022936</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001778966663938111</v>
+        <v>0.3052560051270899</v>
       </c>
       <c r="J7" t="n">
-        <v>0.04549444504355225</v>
+        <v>1.493391752893866</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02644003362558176</v>
+        <v>0.4253958017580197</v>
       </c>
       <c r="L7" t="n">
-        <v>1.010748477417295</v>
+        <v>0.9297061658042676</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02685643772484767</v>
+        <v>0.4320953603959164</v>
       </c>
       <c r="N7" t="n">
-        <v>144.5315039689204</v>
+        <v>37.41894098077088</v>
       </c>
       <c r="O7" t="n">
-        <v>285.8666765121368</v>
+        <v>74.38352456899671</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_8</t>
+          <t>model_1_30_9</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998476544663619</v>
+        <v>0.9479476513513256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8237541968138976</v>
+        <v>0.734603527127311</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8147133875385241</v>
+        <v>0.7456030897924941</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9996499421253648</v>
+        <v>0.930822427970327</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0006341423509117728</v>
+        <v>0.1824700589989034</v>
       </c>
       <c r="G8" t="n">
-        <v>1.178556497442769</v>
+        <v>1.774707436138061</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6627594692396238</v>
+        <v>0.9099629970318677</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001618882288108704</v>
+        <v>0.3230481567585791</v>
       </c>
       <c r="J8" t="n">
-        <v>0.04340654024512165</v>
+        <v>1.500153653402069</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02518218320384023</v>
+        <v>0.4271651425372901</v>
       </c>
       <c r="L8" t="n">
-        <v>1.009750114152837</v>
+        <v>0.9291202060954221</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02557877741635282</v>
+        <v>0.4338925665237685</v>
       </c>
       <c r="N8" t="n">
-        <v>144.7264742009555</v>
+        <v>37.40233835939787</v>
       </c>
       <c r="O8" t="n">
-        <v>286.0616467441719</v>
+        <v>74.36692194762368</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_9</t>
+          <t>model_1_30_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998490973977361</v>
+        <v>0.9479866418833502</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8237353429724692</v>
+        <v>0.7345835945615534</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8147067119493259</v>
+        <v>0.7456649188564096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9996536349868521</v>
+        <v>0.9313770081422778</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0006281361105451126</v>
+        <v>0.1823333772762984</v>
       </c>
       <c r="G9" t="n">
-        <v>1.178682573167215</v>
+        <v>1.774840725297064</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6627833474351128</v>
+        <v>0.9097418380552973</v>
       </c>
       <c r="I9" t="n">
-        <v>0.001601804231915065</v>
+        <v>0.3204583563786711</v>
       </c>
       <c r="J9" t="n">
-        <v>0.04301042428942119</v>
+        <v>1.498965777549824</v>
       </c>
       <c r="K9" t="n">
-        <v>0.02506264372617367</v>
+        <v>0.4270051255855115</v>
       </c>
       <c r="L9" t="n">
-        <v>1.00965776654489</v>
+        <v>0.9291732995858386</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02545735531140866</v>
+        <v>0.4337300294649575</v>
       </c>
       <c r="N9" t="n">
-        <v>144.7455073568865</v>
+        <v>37.40383704844966</v>
       </c>
       <c r="O9" t="n">
-        <v>286.0806799001029</v>
+        <v>74.36842063667548</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_7</t>
+          <t>model_1_30_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998476655630386</v>
+        <v>0.9479611571215034</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8237209830306019</v>
+        <v>0.7345703921811588</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8146260846629465</v>
+        <v>0.7456458392556375</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996532959317206</v>
+        <v>0.9310875569398053</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0006340961606987588</v>
+        <v>0.1824227143786289</v>
       </c>
       <c r="G10" t="n">
-        <v>1.178778598164603</v>
+        <v>1.774929009675554</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6630717465634532</v>
+        <v>0.90981008468096</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0016033722307715</v>
+        <v>0.3218100470305227</v>
       </c>
       <c r="J10" t="n">
-        <v>0.04300410998300962</v>
+        <v>1.499536653745643</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02518126606623977</v>
+        <v>0.4271097217093389</v>
       </c>
       <c r="L10" t="n">
-        <v>1.009749403965529</v>
+        <v>0.9291385969314089</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02557784583475197</v>
+        <v>0.4338362728731775</v>
       </c>
       <c r="N10" t="n">
-        <v>144.7266198840036</v>
+        <v>37.40285735702121</v>
       </c>
       <c r="O10" t="n">
-        <v>286.06179242722</v>
+        <v>74.36744094524704</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_30_5</t>
+          <t>model_1_30_6</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998323419447398</v>
+        <v>0.9480098743298274</v>
       </c>
       <c r="C11" t="n">
-        <v>0.823705283696395</v>
+        <v>0.7345032684900521</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8141996334093564</v>
+        <v>0.7457635099055968</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9996404686982053</v>
+        <v>0.9319155063661472</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0006978811309594225</v>
+        <v>0.1822519356893302</v>
       </c>
       <c r="G11" t="n">
-        <v>1.178883579684734</v>
+        <v>1.77537786610706</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6645971379704805</v>
+        <v>0.9093891835889919</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001662693224949477</v>
+        <v>0.3179436561147738</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0451222966878362</v>
+        <v>1.497676522868919</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02641743990169037</v>
+        <v>0.4269097512230544</v>
       </c>
       <c r="L11" t="n">
-        <v>1.010730115536653</v>
+        <v>0.9292049352576374</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02683348817239042</v>
+        <v>0.4336331530516312</v>
       </c>
       <c r="N11" t="n">
-        <v>144.5349235383791</v>
+        <v>37.40473057416698</v>
       </c>
       <c r="O11" t="n">
-        <v>285.8700960815955</v>
+        <v>74.3693141623928</v>
       </c>
     </row>
   </sheetData>
